--- a/Sexto Semestre ESCOM/Administración de proyectos/Plan de negocios/Balance general profroma para ejercicios de plan de negocios en clase.xlsx
+++ b/Sexto Semestre ESCOM/Administración de proyectos/Plan de negocios/Balance general profroma para ejercicios de plan de negocios en clase.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BrandMV\Documents\ESCOM\Sexto Semestre ESCOM\Administración de proyectos\Plan de negocios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08190578-9BF3-4048-8ED0-43D1ABC02295}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{656D1AA7-50B7-4C5A-8667-E4769EC629EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{A5DE5509-32D8-41A4-86F2-CA31CECF7608}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{A5DE5509-32D8-41A4-86F2-CA31CECF7608}"/>
   </bookViews>
   <sheets>
     <sheet name="Inicial 2022" sheetId="1" r:id="rId1"/>
@@ -402,7 +402,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -420,7 +420,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -478,6 +477,12 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -493,12 +498,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -572,8 +573,8 @@
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1400175</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>184346</xdr:rowOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>902</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1094,84 +1095,90 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B87E650B-1A43-4E6A-B367-695800515B0E}">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="44.85546875" customWidth="1"/>
-    <col min="2" max="2" width="21.42578125" customWidth="1"/>
-    <col min="3" max="3" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.7109375" customWidth="1"/>
+    <col min="1" max="1" width="44.81640625" customWidth="1"/>
+    <col min="2" max="2" width="21.453125" customWidth="1"/>
+    <col min="3" max="3" width="28.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.7265625" customWidth="1"/>
+    <col min="7" max="7" width="11.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="47" t="s">
+    <row r="1" spans="1:7" ht="55.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="49"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="54"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="21" t="s">
         <v>36</v>
       </c>
       <c r="B2" s="1"/>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="21" t="s">
         <v>37</v>
       </c>
       <c r="D2" s="9"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="15" t="s">
+      <c r="B3" s="16"/>
+      <c r="C3" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="18"/>
+      <c r="D3" s="17"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="4"/>
+      <c r="B4" s="4">
+        <v>343175</v>
+      </c>
       <c r="C4" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D4" s="11"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="42" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="6"/>
+      <c r="B5" s="6">
+        <f>B4</f>
+        <v>343175</v>
+      </c>
       <c r="C5" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D5" s="52">
-        <v>172000</v>
+      <c r="D5" s="46">
+        <v>34317</v>
       </c>
       <c r="E5" s="2"/>
-      <c r="G5" s="35"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
+      <c r="G5" s="34"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="27"/>
-      <c r="C6" s="28"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="27"/>
       <c r="D6" s="11"/>
       <c r="E6" s="2"/>
-      <c r="G6" s="35"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G6" s="34"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -1179,121 +1186,121 @@
         <v>27000</v>
       </c>
       <c r="C7" s="11"/>
-      <c r="D7" s="33"/>
+      <c r="D7" s="32"/>
       <c r="E7" s="2"/>
-      <c r="G7" s="36"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G7" s="35"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="5">
         <v>107000</v>
       </c>
-      <c r="C8" s="42" t="s">
+      <c r="C8" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="53">
+      <c r="D8" s="47">
         <f>D5</f>
-        <v>172000</v>
+        <v>34317</v>
       </c>
       <c r="E8" s="2"/>
-      <c r="G8" s="37"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G8" s="36"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="4">
         <v>-22050</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="20"/>
+      <c r="D9" s="19"/>
       <c r="E9" s="2"/>
-      <c r="G9" s="38"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="42" t="s">
+      <c r="G9" s="37"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" s="41" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="6">
         <f>B7+B8+B9</f>
         <v>111950</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="52">
+      <c r="D10" s="46">
         <v>0</v>
       </c>
       <c r="E10" s="2"/>
-      <c r="G10" s="37"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G10" s="36"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="8"/>
-      <c r="C11" s="26" t="s">
+      <c r="C11" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="52">
+      <c r="D11" s="46">
         <v>0</v>
       </c>
       <c r="E11" s="2"/>
-      <c r="G11" s="37"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G11" s="36"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="8"/>
-      <c r="C12" s="30"/>
+      <c r="C12" s="29"/>
       <c r="D12" s="11"/>
       <c r="E12" s="2"/>
-      <c r="G12" s="37"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G12" s="36"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="8"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="32"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="31"/>
       <c r="E13" s="2"/>
-      <c r="G13" s="38"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G13" s="37"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="8"/>
-      <c r="C14" s="43" t="s">
+      <c r="C14" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="53">
+      <c r="D14" s="47">
         <f>D10+D11</f>
         <v>0</v>
       </c>
       <c r="E14" s="2"/>
-      <c r="G14" s="37"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G14" s="36"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="7"/>
-      <c r="C15" s="19" t="s">
+      <c r="C15" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="54">
+      <c r="D15" s="48">
         <f>D8+D14</f>
-        <v>172000</v>
+        <v>34317</v>
       </c>
       <c r="E15" s="2"/>
-      <c r="G15" s="37"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="15" t="s">
+      <c r="G15" s="36"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="16"/>
-      <c r="C16" s="19" t="s">
+      <c r="B16" s="15"/>
+      <c r="C16" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="20"/>
+      <c r="D16" s="19"/>
       <c r="E16" s="2"/>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="25" t="s">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A17" s="24" t="s">
         <v>11</v>
       </c>
       <c r="B17" s="5">
@@ -1302,13 +1309,13 @@
       <c r="C17" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="45">
+      <c r="D17" s="44">
         <v>50000</v>
       </c>
       <c r="E17" s="2"/>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="8" t="s">
         <v>12</v>
       </c>
@@ -1318,13 +1325,13 @@
       <c r="C18" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="52">
+      <c r="D18" s="46">
         <v>0</v>
       </c>
       <c r="E18" s="2"/>
       <c r="G18" s="3"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="8" t="s">
         <v>46</v>
       </c>
@@ -1334,110 +1341,117 @@
       <c r="C19" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="55">
+      <c r="D19" s="49">
         <v>0</v>
       </c>
       <c r="E19" s="2"/>
-      <c r="G19" s="3"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G19" s="58">
+        <f>D8-D22</f>
+        <v>75452</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="8" t="s">
         <v>34</v>
       </c>
       <c r="B20" s="5">
         <v>0</v>
       </c>
-      <c r="C20" s="39" t="s">
+      <c r="C20" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="D20" s="55">
-        <v>1021270</v>
+      <c r="D20" s="49">
+        <v>-91135</v>
       </c>
       <c r="E20" s="2"/>
       <c r="G20" s="3"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="21">
+      <c r="B21" s="20">
         <v>3683</v>
       </c>
-      <c r="C21" s="30" t="s">
+      <c r="C21" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="D21" s="52">
+      <c r="D21" s="46">
         <v>0</v>
       </c>
       <c r="E21" s="2"/>
+      <c r="F21" s="57">
+        <f>D15+D22</f>
+        <v>-6818</v>
+      </c>
       <c r="G21" s="3"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="40" t="s">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A22" s="39" t="s">
         <v>15</v>
       </c>
       <c r="B22" s="6">
         <f>B17+B18+B21+B19+B20</f>
         <v>118014</v>
       </c>
-      <c r="C22" s="41" t="s">
+      <c r="C22" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="D22" s="54">
-        <f>D20-D17</f>
-        <v>971270</v>
+      <c r="D22" s="48">
+        <f>D20+D17</f>
+        <v>-41135</v>
       </c>
       <c r="E22" s="2"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="7"/>
       <c r="B23" s="4"/>
-      <c r="C23" s="31" t="s">
+      <c r="C23" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="D23" s="52">
-        <v>1029234</v>
+      <c r="D23" s="57">
+        <v>566321</v>
       </c>
       <c r="E23" s="2"/>
       <c r="G23" s="3"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="24" t="s">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A24" s="23" t="s">
         <v>16</v>
       </c>
       <c r="B24" s="12">
         <f>B10+B22+B5</f>
-        <v>229964</v>
-      </c>
-      <c r="C24" s="14" t="s">
+        <v>573139</v>
+      </c>
+      <c r="C24" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="D24" s="56">
-        <f>D23-D22+D15</f>
-        <v>229964</v>
+      <c r="D24" s="50">
+        <f>D23+6818</f>
+        <v>573139</v>
       </c>
       <c r="E24" s="2"/>
       <c r="G24" s="3"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="50"/>
-      <c r="C25" s="50"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="50"/>
-      <c r="C26" s="50"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="51"/>
-      <c r="C27" s="51"/>
-    </row>
-    <row r="28" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A28" s="23" t="s">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A25" s="55"/>
+      <c r="C25" s="55"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A26" s="55"/>
+      <c r="C26" s="55"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A27" s="56"/>
+      <c r="C27" s="56"/>
+    </row>
+    <row r="28" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A28" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="23" t="s">
+      <c r="C28" s="22" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1457,83 +1471,86 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAB50BC5-8670-437D-B209-6276A6A3405B}">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="44.85546875" customWidth="1"/>
-    <col min="2" max="2" width="21.42578125" customWidth="1"/>
-    <col min="3" max="3" width="26.5703125" customWidth="1"/>
-    <col min="4" max="4" width="26.7109375" customWidth="1"/>
+    <col min="1" max="1" width="44.81640625" customWidth="1"/>
+    <col min="2" max="2" width="21.453125" customWidth="1"/>
+    <col min="3" max="3" width="26.54296875" customWidth="1"/>
+    <col min="4" max="4" width="26.7265625" customWidth="1"/>
+    <col min="6" max="6" width="11.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="47" t="s">
+    <row r="1" spans="1:7" ht="55.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="49"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="54"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="21" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1"/>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="21" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="9"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="15" t="s">
+      <c r="B3" s="16"/>
+      <c r="C3" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="18"/>
+      <c r="D3" s="17"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="4"/>
+      <c r="B4" s="4">
+        <v>343175</v>
+      </c>
       <c r="C4" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D4" s="11"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="6">
         <f>B4</f>
-        <v>0</v>
+        <v>343175</v>
       </c>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
       <c r="E5" s="2"/>
-      <c r="G5" s="35"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
+      <c r="G5" s="34"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="27"/>
-      <c r="C6" s="28"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="27"/>
       <c r="D6" s="11"/>
       <c r="E6" s="2"/>
-      <c r="G6" s="35"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G6" s="34"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -1541,11 +1558,11 @@
         <v>27000</v>
       </c>
       <c r="C7" s="11"/>
-      <c r="D7" s="33"/>
+      <c r="D7" s="32"/>
       <c r="E7" s="2"/>
-      <c r="G7" s="36"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G7" s="35"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -1560,23 +1577,23 @@
         <v>0</v>
       </c>
       <c r="E8" s="2"/>
-      <c r="G8" s="37"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G8" s="36"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="4">
         <v>-59850</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="20"/>
+      <c r="D9" s="19"/>
       <c r="E9" s="2"/>
-      <c r="G9" s="38"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G9" s="37"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -1584,39 +1601,39 @@
         <f>B7+B8+B9</f>
         <v>74150</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="25" t="s">
         <v>30</v>
       </c>
       <c r="D10" s="11"/>
       <c r="E10" s="2"/>
-      <c r="G10" s="37"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G10" s="36"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="8"/>
-      <c r="C11" s="26" t="s">
+      <c r="C11" s="25" t="s">
         <v>31</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="2"/>
-      <c r="G11" s="37"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G11" s="36"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="8"/>
-      <c r="C12" s="30"/>
+      <c r="C12" s="29"/>
       <c r="D12" s="11"/>
       <c r="E12" s="2"/>
-      <c r="G12" s="37"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G12" s="36"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="8"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="32"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="31"/>
       <c r="E13" s="2"/>
-      <c r="G13" s="38"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G13" s="37"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="8"/>
-      <c r="C14" s="30" t="s">
+      <c r="C14" s="29" t="s">
         <v>32</v>
       </c>
       <c r="D14" s="10">
@@ -1624,34 +1641,34 @@
         <v>0</v>
       </c>
       <c r="E14" s="2"/>
-      <c r="G14" s="37"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G14" s="36"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="7"/>
-      <c r="C15" s="17" t="s">
+      <c r="C15" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="18">
+      <c r="D15" s="17">
         <f>D8+D14</f>
         <v>0</v>
       </c>
       <c r="E15" s="2"/>
-      <c r="G15" s="37"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="15" t="s">
+      <c r="G15" s="36"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="16"/>
-      <c r="C16" s="19" t="s">
+      <c r="B16" s="15"/>
+      <c r="C16" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="20"/>
+      <c r="D16" s="19"/>
       <c r="E16" s="2"/>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="25" t="s">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A17" s="24" t="s">
         <v>11</v>
       </c>
       <c r="B17" s="5">
@@ -1660,13 +1677,13 @@
       <c r="C17" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="45">
+      <c r="D17" s="44">
         <v>50000</v>
       </c>
       <c r="E17" s="2"/>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="8" t="s">
         <v>12</v>
       </c>
@@ -1680,7 +1697,7 @@
       <c r="E18" s="2"/>
       <c r="G18" s="3"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="8" t="s">
         <v>46</v>
       </c>
@@ -1694,39 +1711,40 @@
       <c r="E19" s="2"/>
       <c r="G19" s="3"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="8" t="s">
         <v>13</v>
       </c>
       <c r="B20" s="5">
         <v>0</v>
       </c>
-      <c r="C20" s="39" t="s">
+      <c r="C20" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="D20" s="55">
-        <v>1021270</v>
+      <c r="D20" s="49">
+        <v>-422182</v>
       </c>
       <c r="E20" s="2"/>
       <c r="G20" s="3"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="21">
+      <c r="B21" s="20">
         <v>0</v>
       </c>
-      <c r="C21" s="30" t="s">
+      <c r="C21" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="D21" s="52">
-        <v>688237</v>
+      <c r="D21" s="46">
+        <f>'Inicial 2022'!D20</f>
+        <v>-91135</v>
       </c>
       <c r="E21" s="2"/>
       <c r="G21" s="3"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="8" t="s">
         <v>15</v>
       </c>
@@ -1734,64 +1752,68 @@
         <f>B17+B18+B19+B20+B21</f>
         <v>195996</v>
       </c>
-      <c r="C22" s="34" t="s">
+      <c r="C22" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="D22" s="54">
+      <c r="D22" s="48">
         <f>D20+D21-D17</f>
-        <v>1659507</v>
+        <v>-563317</v>
       </c>
       <c r="E22" s="2"/>
+      <c r="F22" s="57">
+        <f>D22+B24</f>
+        <v>50004</v>
+      </c>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="7"/>
       <c r="B23" s="4"/>
-      <c r="C23" s="31" t="s">
+      <c r="C23" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="D23" s="46">
-        <v>1929653</v>
+      <c r="D23" s="45">
+        <v>50004</v>
       </c>
       <c r="E23" s="2"/>
       <c r="G23" s="3"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="24" t="s">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A24" s="23" t="s">
         <v>16</v>
       </c>
       <c r="B24" s="12">
         <f>B5+B10+B22</f>
-        <v>270146</v>
-      </c>
-      <c r="C24" s="14" t="s">
+        <v>613321</v>
+      </c>
+      <c r="C24" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D24" s="57">
+      <c r="D24" s="51">
         <f>D23-D22</f>
-        <v>270146</v>
+        <v>613321</v>
       </c>
       <c r="E24" s="2"/>
       <c r="G24" s="3"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="50"/>
-      <c r="C25" s="50"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="50"/>
-      <c r="C26" s="50"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="51"/>
-      <c r="C27" s="51"/>
-    </row>
-    <row r="28" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A28" s="23" t="s">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A25" s="55"/>
+      <c r="C25" s="55"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A26" s="55"/>
+      <c r="C26" s="55"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A27" s="56"/>
+      <c r="C27" s="56"/>
+    </row>
+    <row r="28" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A28" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="23" t="s">
+      <c r="C28" s="22" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1811,82 +1833,87 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06F5C2D9-C48E-4058-BD10-F442978923CA}">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="44.85546875" customWidth="1"/>
-    <col min="2" max="2" width="21.42578125" customWidth="1"/>
-    <col min="3" max="3" width="26.5703125" customWidth="1"/>
-    <col min="4" max="4" width="26.7109375" customWidth="1"/>
+    <col min="1" max="1" width="44.81640625" customWidth="1"/>
+    <col min="2" max="2" width="21.453125" customWidth="1"/>
+    <col min="3" max="3" width="26.54296875" customWidth="1"/>
+    <col min="4" max="4" width="26.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="47" t="s">
+    <row r="1" spans="1:7" ht="55.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="49"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="54"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="21" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1"/>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="21" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="9"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="15" t="s">
+      <c r="B3" s="16"/>
+      <c r="C3" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="18"/>
+      <c r="D3" s="17"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="4"/>
+      <c r="B4" s="4">
+        <v>343175</v>
+      </c>
       <c r="C4" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D4" s="11"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="6"/>
+      <c r="B5" s="6">
+        <f>B4</f>
+        <v>343175</v>
+      </c>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
       <c r="E5" s="2"/>
-      <c r="G5" s="35" t="s">
+      <c r="G5" s="34" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="27"/>
-      <c r="C6" s="28"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="27"/>
       <c r="D6" s="11"/>
       <c r="E6" s="2"/>
-      <c r="G6" s="35"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G6" s="34"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -1894,11 +1921,11 @@
         <v>27000</v>
       </c>
       <c r="C7" s="11"/>
-      <c r="D7" s="33"/>
+      <c r="D7" s="32"/>
       <c r="E7" s="2"/>
-      <c r="G7" s="36"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G7" s="35"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -1908,94 +1935,98 @@
       <c r="C8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="10"/>
+      <c r="D8" s="10">
+        <v>0</v>
+      </c>
       <c r="E8" s="2"/>
-      <c r="G8" s="37"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G8" s="36"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="44">
+      <c r="B9" s="43">
         <v>-97650</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="20"/>
+      <c r="D9" s="19"/>
       <c r="E9" s="2"/>
-      <c r="G9" s="38"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G9" s="37"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="16">
+      <c r="B10" s="15">
         <f>B7+B8+B9</f>
         <v>36350</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="25" t="s">
         <v>30</v>
       </c>
       <c r="D10" s="11"/>
       <c r="E10" s="2"/>
-      <c r="G10" s="37"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G10" s="36"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="8"/>
-      <c r="C11" s="26" t="s">
+      <c r="C11" s="25" t="s">
         <v>31</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="2"/>
-      <c r="G11" s="37"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G11" s="36"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="8"/>
-      <c r="C12" s="30"/>
+      <c r="C12" s="29"/>
       <c r="D12" s="11"/>
       <c r="E12" s="2"/>
-      <c r="G12" s="37"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G12" s="36"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="8"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="32"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="31"/>
       <c r="E13" s="2"/>
-      <c r="G13" s="38"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G13" s="37"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="8"/>
-      <c r="C14" s="30" t="s">
+      <c r="C14" s="29" t="s">
         <v>32</v>
       </c>
       <c r="D14" s="10"/>
       <c r="E14" s="2"/>
-      <c r="G14" s="37"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G14" s="36"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="7"/>
-      <c r="C15" s="17" t="s">
+      <c r="C15" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="18"/>
+      <c r="D15" s="17">
+        <v>0</v>
+      </c>
       <c r="E15" s="2"/>
-      <c r="G15" s="37"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="15" t="s">
+      <c r="G15" s="36"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="16"/>
-      <c r="C16" s="19" t="s">
+      <c r="B16" s="15"/>
+      <c r="C16" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="20"/>
+      <c r="D16" s="19"/>
       <c r="E16" s="2"/>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="25" t="s">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A17" s="24" t="s">
         <v>11</v>
       </c>
       <c r="B17" s="5">
@@ -2004,13 +2035,13 @@
       <c r="C17" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="45">
+      <c r="D17" s="44">
         <v>50000</v>
       </c>
       <c r="E17" s="2"/>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="8" t="s">
         <v>12</v>
       </c>
@@ -2020,11 +2051,13 @@
       <c r="C18" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="11"/>
+      <c r="D18" s="11">
+        <v>0</v>
+      </c>
       <c r="E18" s="2"/>
       <c r="G18" s="3"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="8" t="s">
         <v>46</v>
       </c>
@@ -2034,39 +2067,46 @@
       <c r="C19" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="8"/>
+      <c r="D19" s="8">
+        <v>0</v>
+      </c>
       <c r="E19" s="2"/>
       <c r="G19" s="3"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="8" t="s">
         <v>13</v>
       </c>
       <c r="B20" s="5">
         <v>0</v>
       </c>
-      <c r="C20" s="39" t="s">
+      <c r="C20" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="D20" s="8"/>
+      <c r="D20" s="49">
+        <v>-47307</v>
+      </c>
       <c r="E20" s="2"/>
       <c r="G20" s="3"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="21">
+      <c r="B21" s="20">
         <v>0</v>
       </c>
-      <c r="C21" s="30" t="s">
+      <c r="C21" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="D21" s="11"/>
+      <c r="D21" s="46">
+        <f>'Balance 2024'!D20+'Balance 2023'!D20</f>
+        <v>-469489</v>
+      </c>
       <c r="E21" s="2"/>
       <c r="G21" s="3"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="8" t="s">
         <v>15</v>
       </c>
@@ -2074,58 +2114,67 @@
         <f>B17+B18+B19+B20+B21</f>
         <v>195996</v>
       </c>
-      <c r="C22" s="34" t="s">
+      <c r="C22" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="D22" s="18"/>
+      <c r="D22" s="48">
+        <f>D20+D21-D17</f>
+        <v>-566796</v>
+      </c>
       <c r="E22" s="2"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="7"/>
       <c r="B23" s="4"/>
-      <c r="C23" s="31" t="s">
+      <c r="C23" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="D23" s="11"/>
+      <c r="D23" s="45">
+        <f>B24-D22</f>
+        <v>1142317</v>
+      </c>
       <c r="E23" s="2" t="s">
         <v>42</v>
       </c>
       <c r="G23" s="3"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="24" t="s">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A24" s="23" t="s">
         <v>16</v>
       </c>
       <c r="B24" s="12">
         <f>B5+B10+B22</f>
-        <v>232346</v>
-      </c>
-      <c r="C24" s="14" t="s">
+        <v>575521</v>
+      </c>
+      <c r="C24" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D24" s="13"/>
+      <c r="D24" s="51">
+        <f>D23+D22</f>
+        <v>575521</v>
+      </c>
       <c r="E24" s="2"/>
       <c r="G24" s="3"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="50"/>
-      <c r="C25" s="50"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="50"/>
-      <c r="C26" s="50"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="51"/>
-      <c r="C27" s="51"/>
-    </row>
-    <row r="28" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A28" s="23" t="s">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A25" s="55"/>
+      <c r="C25" s="55"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A26" s="55"/>
+      <c r="C26" s="55"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A27" s="56"/>
+      <c r="C27" s="56"/>
+    </row>
+    <row r="28" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A28" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="23" t="s">
+      <c r="C28" s="22" t="s">
         <v>44</v>
       </c>
     </row>
@@ -2142,26 +2191,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="4ecd955e-de54-4019-bb4b-f05ad869cd1d" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="190c8990-5a96-4215-abfd-93010a72b119">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100BB9020C93E3AF24D9B15CFDD3D795D68" ma:contentTypeVersion="13" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="89500325cf0915c54ef469f40936efdb">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="190c8990-5a96-4215-abfd-93010a72b119" xmlns:ns3="4ecd955e-de54-4019-bb4b-f05ad869cd1d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7d355c86073a7160a34d870c5b91e419" ns2:_="" ns3:_="">
     <xsd:import namespace="190c8990-5a96-4215-abfd-93010a72b119"/>
@@ -2378,10 +2407,41 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="4ecd955e-de54-4019-bb4b-f05ad869cd1d" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="190c8990-5a96-4215-abfd-93010a72b119">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43AFA532-048E-4F33-A023-6377234D34A6}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A692625E-A057-47DC-9A82-DD3CE9B5C562}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="190c8990-5a96-4215-abfd-93010a72b119"/>
+    <ds:schemaRef ds:uri="4ecd955e-de54-4019-bb4b-f05ad869cd1d"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2398,20 +2458,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A692625E-A057-47DC-9A82-DD3CE9B5C562}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43AFA532-048E-4F33-A023-6377234D34A6}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="190c8990-5a96-4215-abfd-93010a72b119"/>
-    <ds:schemaRef ds:uri="4ecd955e-de54-4019-bb4b-f05ad869cd1d"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Sexto Semestre ESCOM/Administración de proyectos/Plan de negocios/Balance general profroma para ejercicios de plan de negocios en clase.xlsx
+++ b/Sexto Semestre ESCOM/Administración de proyectos/Plan de negocios/Balance general profroma para ejercicios de plan de negocios en clase.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BrandMV\Documents\ESCOM\Sexto Semestre ESCOM\Administración de proyectos\Plan de negocios\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PC\ESCOM\ESCOM\Sexto Semestre ESCOM\Administración de proyectos\Plan de negocios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{656D1AA7-50B7-4C5A-8667-E4769EC629EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC4EFBF5-784C-49C3-8422-F269055817F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{A5DE5509-32D8-41A4-86F2-CA31CECF7608}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{A5DE5509-32D8-41A4-86F2-CA31CECF7608}"/>
   </bookViews>
   <sheets>
     <sheet name="Inicial 2022" sheetId="1" r:id="rId1"/>
@@ -118,11 +118,6 @@
 Jefe del Departamento de Contabilidad y Finanzas</t>
   </si>
   <si>
-    <t>BZT Tec. S.A. de C.V.
-Balance General Proforma
-Al 31 de diciembre del 2023</t>
-  </si>
-  <si>
     <t>Capital Contable</t>
   </si>
   <si>
@@ -141,11 +136,6 @@
     <t>Total Pasivo Fijo</t>
   </si>
   <si>
-    <t>BZT Tec. S.A. de C.V.
-Balance General Proforma
-Al 31 de diciembre del 2024</t>
-  </si>
-  <si>
     <t>Depósitos en garantía</t>
   </si>
   <si>
@@ -156,11 +146,6 @@
   </si>
   <si>
     <t>PASIVO</t>
-  </si>
-  <si>
-    <t>BZT Tec. S.A. de C.V.
-Balance General Inicial Proforma
-Al 31 de diciembre del 2022</t>
   </si>
   <si>
     <t>Pérdidas acumuladas</t>
@@ -187,6 +172,21 @@
   </si>
   <si>
     <t>Gastos de mantenimiento</t>
+  </si>
+  <si>
+    <t>ProtecTive. S.A. de C.V.
+Balance General Inicial Proforma
+Al 31 de diciembre del 2022</t>
+  </si>
+  <si>
+    <t>ProtecTive. S.A. de C.V.
+Balance General Proforma
+Al 31 de diciembre del 2023</t>
+  </si>
+  <si>
+    <t>ProtecTive. S.A. de C.V.
+Balance General Proforma
+Al 31 de diciembre del 2024</t>
   </si>
 </sst>
 </file>
@@ -483,6 +483,8 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -498,8 +500,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1095,39 +1095,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B87E650B-1A43-4E6A-B367-695800515B0E}">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.81640625" customWidth="1"/>
-    <col min="2" max="2" width="21.453125" customWidth="1"/>
-    <col min="3" max="3" width="28.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.7265625" customWidth="1"/>
-    <col min="7" max="7" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44.85546875" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" customWidth="1"/>
+    <col min="3" max="3" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.7109375" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="55.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="52" t="s">
-        <v>38</v>
-      </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="54"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="54" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="56"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="21" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D2" s="9"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>2</v>
       </c>
@@ -1138,7 +1138,7 @@
       <c r="D3" s="17"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -1146,12 +1146,12 @@
         <v>343175</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D4" s="11"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="41" t="s">
         <v>4</v>
       </c>
@@ -1160,7 +1160,7 @@
         <v>343175</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D5" s="46">
         <v>34317</v>
@@ -1168,7 +1168,7 @@
       <c r="E5" s="2"/>
       <c r="G5" s="34"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>5</v>
       </c>
@@ -1178,7 +1178,7 @@
       <c r="E6" s="2"/>
       <c r="G6" s="34"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -1190,7 +1190,7 @@
       <c r="E7" s="2"/>
       <c r="G7" s="35"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -1207,7 +1207,7 @@
       <c r="E8" s="2"/>
       <c r="G8" s="36"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -1221,7 +1221,7 @@
       <c r="E9" s="2"/>
       <c r="G9" s="37"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="41" t="s">
         <v>9</v>
       </c>
@@ -1230,7 +1230,7 @@
         <v>111950</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D10" s="46">
         <v>0</v>
@@ -1238,10 +1238,10 @@
       <c r="E10" s="2"/>
       <c r="G10" s="36"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
       <c r="C11" s="25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D11" s="46">
         <v>0</v>
@@ -1249,24 +1249,24 @@
       <c r="E11" s="2"/>
       <c r="G11" s="36"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
       <c r="C12" s="29"/>
       <c r="D12" s="11"/>
       <c r="E12" s="2"/>
       <c r="G12" s="36"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="8"/>
       <c r="C13" s="28"/>
       <c r="D13" s="31"/>
       <c r="E13" s="2"/>
       <c r="G13" s="37"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="8"/>
       <c r="C14" s="42" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D14" s="47">
         <f>D10+D11</f>
@@ -1275,7 +1275,7 @@
       <c r="E14" s="2"/>
       <c r="G14" s="36"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
       <c r="C15" s="18" t="s">
         <v>19</v>
@@ -1287,19 +1287,19 @@
       <c r="E15" s="2"/>
       <c r="G15" s="36"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>10</v>
       </c>
       <c r="B16" s="15"/>
       <c r="C16" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D16" s="19"/>
       <c r="E16" s="2"/>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="24" t="s">
         <v>11</v>
       </c>
@@ -1315,7 +1315,7 @@
       <c r="E17" s="2"/>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>12</v>
       </c>
@@ -1331,34 +1331,34 @@
       <c r="E18" s="2"/>
       <c r="G18" s="3"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B19" s="5">
         <v>77000</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D19" s="49">
         <v>0</v>
       </c>
       <c r="E19" s="2"/>
-      <c r="G19" s="58">
+      <c r="G19" s="53">
         <f>D8-D22</f>
         <v>75452</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B20" s="5">
         <v>0</v>
       </c>
       <c r="C20" s="38" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D20" s="49">
         <v>-91135</v>
@@ -1366,7 +1366,7 @@
       <c r="E20" s="2"/>
       <c r="G20" s="3"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>14</v>
       </c>
@@ -1374,19 +1374,19 @@
         <v>3683</v>
       </c>
       <c r="C21" s="29" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D21" s="46">
         <v>0</v>
       </c>
       <c r="E21" s="2"/>
-      <c r="F21" s="57">
+      <c r="F21" s="52">
         <f>D15+D22</f>
         <v>-6818</v>
       </c>
       <c r="G21" s="3"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="39" t="s">
         <v>15</v>
       </c>
@@ -1405,19 +1405,19 @@
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
       <c r="B23" s="4"/>
       <c r="C23" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="D23" s="57">
+      <c r="D23" s="52">
         <v>566321</v>
       </c>
       <c r="E23" s="2"/>
       <c r="G23" s="3"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="23" t="s">
         <v>16</v>
       </c>
@@ -1426,7 +1426,7 @@
         <v>573139</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D24" s="50">
         <f>D23+6818</f>
@@ -1435,24 +1435,24 @@
       <c r="E24" s="2"/>
       <c r="G24" s="3"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A25" s="55"/>
-      <c r="C25" s="55"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A26" s="55"/>
-      <c r="C26" s="55"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A27" s="56"/>
-      <c r="C27" s="56"/>
-    </row>
-    <row r="28" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="57"/>
+      <c r="C25" s="57"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="57"/>
+      <c r="C26" s="57"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="58"/>
+      <c r="C27" s="58"/>
+    </row>
+    <row r="28" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="22" t="s">
         <v>25</v>
       </c>
       <c r="C28" s="22" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1471,28 +1471,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAB50BC5-8670-437D-B209-6276A6A3405B}">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.81640625" customWidth="1"/>
-    <col min="2" max="2" width="21.453125" customWidth="1"/>
-    <col min="3" max="3" width="26.54296875" customWidth="1"/>
-    <col min="4" max="4" width="26.7265625" customWidth="1"/>
-    <col min="6" max="6" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44.85546875" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" customWidth="1"/>
+    <col min="3" max="3" width="26.5703125" customWidth="1"/>
+    <col min="4" max="4" width="26.7109375" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="55.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="52" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="54"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="54" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="56"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
         <v>0</v>
       </c>
@@ -1503,7 +1503,7 @@
       <c r="D2" s="9"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>2</v>
       </c>
@@ -1514,7 +1514,7 @@
       <c r="D3" s="17"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -1522,12 +1522,12 @@
         <v>343175</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D4" s="11"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -1540,7 +1540,7 @@
       <c r="E5" s="2"/>
       <c r="G5" s="34"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>5</v>
       </c>
@@ -1550,7 +1550,7 @@
       <c r="E6" s="2"/>
       <c r="G6" s="34"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -1562,7 +1562,7 @@
       <c r="E7" s="2"/>
       <c r="G7" s="35"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -1579,7 +1579,7 @@
       <c r="E8" s="2"/>
       <c r="G8" s="36"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -1593,7 +1593,7 @@
       <c r="E9" s="2"/>
       <c r="G9" s="37"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -1602,39 +1602,39 @@
         <v>74150</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D10" s="11"/>
       <c r="E10" s="2"/>
       <c r="G10" s="36"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
       <c r="C11" s="25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="2"/>
       <c r="G11" s="36"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
       <c r="C12" s="29"/>
       <c r="D12" s="11"/>
       <c r="E12" s="2"/>
       <c r="G12" s="36"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="8"/>
       <c r="C13" s="28"/>
       <c r="D13" s="31"/>
       <c r="E13" s="2"/>
       <c r="G13" s="37"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="8"/>
       <c r="C14" s="29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D14" s="10">
         <f>D10+D11+D12</f>
@@ -1643,7 +1643,7 @@
       <c r="E14" s="2"/>
       <c r="G14" s="36"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
       <c r="C15" s="16" t="s">
         <v>19</v>
@@ -1655,19 +1655,19 @@
       <c r="E15" s="2"/>
       <c r="G15" s="36"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>10</v>
       </c>
       <c r="B16" s="15"/>
       <c r="C16" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D16" s="19"/>
       <c r="E16" s="2"/>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="24" t="s">
         <v>11</v>
       </c>
@@ -1683,7 +1683,7 @@
       <c r="E17" s="2"/>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>12</v>
       </c>
@@ -1697,21 +1697,21 @@
       <c r="E18" s="2"/>
       <c r="G18" s="3"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B19" s="5">
         <v>132000</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="2"/>
       <c r="G19" s="3"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>13</v>
       </c>
@@ -1719,7 +1719,7 @@
         <v>0</v>
       </c>
       <c r="C20" s="38" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D20" s="49">
         <v>-422182</v>
@@ -1727,7 +1727,7 @@
       <c r="E20" s="2"/>
       <c r="G20" s="3"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>14</v>
       </c>
@@ -1735,7 +1735,7 @@
         <v>0</v>
       </c>
       <c r="C21" s="29" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D21" s="46">
         <f>'Inicial 2022'!D20</f>
@@ -1744,7 +1744,7 @@
       <c r="E21" s="2"/>
       <c r="G21" s="3"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
         <v>15</v>
       </c>
@@ -1760,14 +1760,14 @@
         <v>-563317</v>
       </c>
       <c r="E22" s="2"/>
-      <c r="F22" s="57">
+      <c r="F22" s="52">
         <f>D22+B24</f>
         <v>50004</v>
       </c>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
       <c r="B23" s="4"/>
       <c r="C23" s="30" t="s">
@@ -1779,7 +1779,7 @@
       <c r="E23" s="2"/>
       <c r="G23" s="3"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="23" t="s">
         <v>16</v>
       </c>
@@ -1797,24 +1797,24 @@
       <c r="E24" s="2"/>
       <c r="G24" s="3"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A25" s="55"/>
-      <c r="C25" s="55"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A26" s="55"/>
-      <c r="C26" s="55"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A27" s="56"/>
-      <c r="C27" s="56"/>
-    </row>
-    <row r="28" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="57"/>
+      <c r="C25" s="57"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="57"/>
+      <c r="C26" s="57"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="58"/>
+      <c r="C27" s="58"/>
+    </row>
+    <row r="28" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="22" t="s">
         <v>25</v>
       </c>
       <c r="C28" s="22" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1833,27 +1833,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06F5C2D9-C48E-4058-BD10-F442978923CA}">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.81640625" customWidth="1"/>
-    <col min="2" max="2" width="21.453125" customWidth="1"/>
-    <col min="3" max="3" width="26.54296875" customWidth="1"/>
-    <col min="4" max="4" width="26.7265625" customWidth="1"/>
+    <col min="1" max="1" width="44.85546875" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" customWidth="1"/>
+    <col min="3" max="3" width="26.5703125" customWidth="1"/>
+    <col min="4" max="4" width="26.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="55.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="52" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="54"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="54" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="56"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
         <v>0</v>
       </c>
@@ -1864,7 +1864,7 @@
       <c r="D2" s="9"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>2</v>
       </c>
@@ -1875,7 +1875,7 @@
       <c r="D3" s="17"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -1883,12 +1883,12 @@
         <v>343175</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D4" s="11"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -1900,10 +1900,10 @@
       <c r="D5" s="11"/>
       <c r="E5" s="2"/>
       <c r="G5" s="34" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>5</v>
       </c>
@@ -1913,7 +1913,7 @@
       <c r="E6" s="2"/>
       <c r="G6" s="34"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -1925,7 +1925,7 @@
       <c r="E7" s="2"/>
       <c r="G7" s="35"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -1941,7 +1941,7 @@
       <c r="E8" s="2"/>
       <c r="G8" s="36"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -1955,7 +1955,7 @@
       <c r="E9" s="2"/>
       <c r="G9" s="37"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -1964,45 +1964,45 @@
         <v>36350</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D10" s="11"/>
       <c r="E10" s="2"/>
       <c r="G10" s="36"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
       <c r="C11" s="25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="2"/>
       <c r="G11" s="36"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
       <c r="C12" s="29"/>
       <c r="D12" s="11"/>
       <c r="E12" s="2"/>
       <c r="G12" s="36"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="8"/>
       <c r="C13" s="28"/>
       <c r="D13" s="31"/>
       <c r="E13" s="2"/>
       <c r="G13" s="37"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="8"/>
       <c r="C14" s="29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D14" s="10"/>
       <c r="E14" s="2"/>
       <c r="G14" s="36"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
       <c r="C15" s="16" t="s">
         <v>19</v>
@@ -2013,19 +2013,19 @@
       <c r="E15" s="2"/>
       <c r="G15" s="36"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>10</v>
       </c>
       <c r="B16" s="15"/>
       <c r="C16" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D16" s="19"/>
       <c r="E16" s="2"/>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="24" t="s">
         <v>11</v>
       </c>
@@ -2041,7 +2041,7 @@
       <c r="E17" s="2"/>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>12</v>
       </c>
@@ -2057,15 +2057,15 @@
       <c r="E18" s="2"/>
       <c r="G18" s="3"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B19" s="5">
         <v>132000</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D19" s="8">
         <v>0</v>
@@ -2073,7 +2073,7 @@
       <c r="E19" s="2"/>
       <c r="G19" s="3"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>13</v>
       </c>
@@ -2081,7 +2081,7 @@
         <v>0</v>
       </c>
       <c r="C20" s="38" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D20" s="49">
         <v>-47307</v>
@@ -2089,7 +2089,7 @@
       <c r="E20" s="2"/>
       <c r="G20" s="3"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>14</v>
       </c>
@@ -2097,7 +2097,7 @@
         <v>0</v>
       </c>
       <c r="C21" s="29" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D21" s="46">
         <f>'Balance 2024'!D20+'Balance 2023'!D20</f>
@@ -2106,7 +2106,7 @@
       <c r="E21" s="2"/>
       <c r="G21" s="3"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
         <v>15</v>
       </c>
@@ -2125,7 +2125,7 @@
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
       <c r="B23" s="4"/>
       <c r="C23" s="30" t="s">
@@ -2136,11 +2136,11 @@
         <v>1142317</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G23" s="3"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="23" t="s">
         <v>16</v>
       </c>
@@ -2158,24 +2158,24 @@
       <c r="E24" s="2"/>
       <c r="G24" s="3"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A25" s="55"/>
-      <c r="C25" s="55"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A26" s="55"/>
-      <c r="C26" s="55"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A27" s="56"/>
-      <c r="C27" s="56"/>
-    </row>
-    <row r="28" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="57"/>
+      <c r="C25" s="57"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="57"/>
+      <c r="C26" s="57"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="58"/>
+      <c r="C27" s="58"/>
+    </row>
+    <row r="28" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="22" t="s">
         <v>25</v>
       </c>
       <c r="C28" s="22" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -2191,6 +2191,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="4ecd955e-de54-4019-bb4b-f05ad869cd1d" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="190c8990-5a96-4215-abfd-93010a72b119">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100BB9020C93E3AF24D9B15CFDD3D795D68" ma:contentTypeVersion="13" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="89500325cf0915c54ef469f40936efdb">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="190c8990-5a96-4215-abfd-93010a72b119" xmlns:ns3="4ecd955e-de54-4019-bb4b-f05ad869cd1d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7d355c86073a7160a34d870c5b91e419" ns2:_="" ns3:_="">
     <xsd:import namespace="190c8990-5a96-4215-abfd-93010a72b119"/>
@@ -2407,27 +2427,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="4ecd955e-de54-4019-bb4b-f05ad869cd1d" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="190c8990-5a96-4215-abfd-93010a72b119">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43AFA532-048E-4F33-A023-6377234D34A6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EA2E0CBA-6506-43FD-9EE0-10ACD6B3C25A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="4ecd955e-de54-4019-bb4b-f05ad869cd1d"/>
+    <ds:schemaRef ds:uri="190c8990-5a96-4215-abfd-93010a72b119"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A692625E-A057-47DC-9A82-DD3CE9B5C562}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2444,23 +2463,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EA2E0CBA-6506-43FD-9EE0-10ACD6B3C25A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="4ecd955e-de54-4019-bb4b-f05ad869cd1d"/>
-    <ds:schemaRef ds:uri="190c8990-5a96-4215-abfd-93010a72b119"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43AFA532-048E-4F33-A023-6377234D34A6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>